--- a/myapp/data/combine_data.xlsx
+++ b/myapp/data/combine_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,22 +638,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>공학필</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>공학수학2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BSM095</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>교양</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>창의적사고와글쓰기</t>
+          <t>미적분학</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -661,7 +671,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LAN123</t>
+          <t>BSM121</t>
         </is>
       </c>
     </row>
@@ -673,7 +683,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>영어읽기와쓰기</t>
+          <t>창의적사고와글쓰기</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -681,7 +691,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LAN316</t>
+          <t>LAN123</t>
         </is>
       </c>
     </row>
@@ -693,15 +703,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>영어청해</t>
+          <t>영어읽기와쓰기</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LAN324</t>
+          <t>LAN316</t>
         </is>
       </c>
     </row>
@@ -713,7 +723,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>영어회화</t>
+          <t>영어청해</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -721,7 +731,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LAN338</t>
+          <t>LAN324</t>
         </is>
       </c>
     </row>
@@ -733,15 +743,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>외국인을위한한국어1</t>
+          <t>영어회화</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LAN921</t>
+          <t>LAN338</t>
         </is>
       </c>
     </row>
@@ -753,15 +763,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>문명과역사</t>
+          <t>외국인을위한한국어1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SHA140</t>
+          <t>LAN921</t>
         </is>
       </c>
     </row>
@@ -771,29 +781,29 @@
           <t>교양</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>문명과역사</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SHA140</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>자유선택</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>기술창업시뮬레이션</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>TAM180</t>
-        </is>
-      </c>
+          <t>교양</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -803,115 +813,115 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>공학수학2</t>
+          <t>기술창업시뮬레이션</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BSM095</t>
+          <t>HJK223</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>자유선택</t>
+          <t>전공</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>미적분학</t>
+          <t>기계재료학</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BSM121</t>
+          <t>MEC365</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>자유선택</t>
+          <t>전공</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>공학제도및CAD</t>
+          <t>재료거동학</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MEB201</t>
+          <t>MEB511</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>자유선택</t>
+          <t>전공</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>정역학</t>
+          <t>친환경공학개론</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MEB301</t>
+          <t>MEC351</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>자유선택</t>
+          <t>전공</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>유체역학</t>
+          <t>열유체공학실험</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MEB341</t>
+          <t>MEC402</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>자유선택</t>
+          <t>전공</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>동역학</t>
+          <t>응용역학실험</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MEB321</t>
+          <t>MEC412</t>
         </is>
       </c>
     </row>
@@ -923,7 +933,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>기계재료학</t>
+          <t>응용제어실험</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -931,7 +941,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MEC365</t>
+          <t>MEC415</t>
         </is>
       </c>
     </row>
@@ -943,7 +953,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>재료거동학</t>
+          <t>기초유한요소법</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -951,59 +961,49 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MEB511</t>
+          <t>MED601</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>전공</t>
+          <t>학부</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>친환경공학개론</t>
+          <t>공학설계(캡스톤디자인)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MEC351</t>
+          <t>MEG875</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>전공</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>열유체공학실험</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>MEC402</t>
-        </is>
-      </c>
+          <t>학부</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>전공</t>
+          <t>학부</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>응용역학실험</t>
+          <t>공학제도및CAD</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MEC412</t>
+          <t>MEB201</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>전공</t>
+          <t>학부</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>응용제어실험</t>
+          <t>정역학</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1031,19 +1031,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MEC415</t>
+          <t>MEB301</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>전공</t>
+          <t>학부</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>기초유한요소법</t>
+          <t>유체역학</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MED601</t>
+          <t>MEB341</t>
         </is>
       </c>
     </row>
@@ -1063,27 +1063,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>공학설계(캡스톤디자인)</t>
+          <t>동역학</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MEG875</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>학부</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+          <t>MEB321</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
